--- a/data/trans_bre/P26_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P26_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,03</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,63</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,19</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,02%</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>53,49%</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>110,91%</t>
+          <t>63,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-21,24%</t>
+          <t>61,91%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>198,63%</t>
+          <t>250,02%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>82,31%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>233,62%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>499,47%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>71,32%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 25,82</t>
+          <t>-1,6; 4,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 21,29</t>
+          <t>-2,03; 5,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 27,89</t>
+          <t>0,37; 8,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 16,67</t>
+          <t>-2,35; 8,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 39,13</t>
+          <t>0,11; 9,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>3,25; 17,36</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 7,12</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-40,53; 789,49</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-73,21; 211,44</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-28,59; —</t>
+          <t>-23,56; 1459,07</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-51,24; 653,2</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-42,39; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>29,85; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-69,34; inf</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,75</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,94</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>411,83%</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>144,89%</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>89,46%</t>
+          <t>347,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-10,1%</t>
+          <t>242,53%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>113,76%</t>
+          <t>181,54%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>31,86%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-49,33%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>294,92%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>181,81%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 36,86</t>
+          <t>-0,01; 4,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 17,82</t>
+          <t>-0,13; 7,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 21,7</t>
+          <t>0,26; 7,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 12,21</t>
+          <t>-3,3; 6,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 25,3</t>
+          <t>-33,88; 5,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>0,94; 10,7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 13,13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-72,87; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-43,42; 683,46</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,68; 78,43</t>
+          <t>-56,58; —</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-53,9; —</t>
+          <t>-18,41; 1086,15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-35,5; 177,42</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-92,88; 672,54</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-9,56; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-12,63; 1003,02</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,47</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,15</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>145,13%</t>
+          <t>70,56%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>50,75%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-8,44%</t>
+          <t>270,83%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>120,65%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>98,95%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>54,13%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>82,76%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 14,0</t>
+          <t>-0,95; 3,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 11,27</t>
+          <t>-2,72; 4,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 21,95</t>
+          <t>2,81; 9,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 19,34</t>
+          <t>2,03; 10,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 12,1</t>
+          <t>0,51; 8,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-62,67; 234,15</t>
+          <t>-1,51; 8,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,06; 168,87</t>
+          <t>-0,53; 10,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 475,59</t>
+          <t>-46,47; 473,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 163,76</t>
+          <t>-45,71; 179,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 86,31</t>
+          <t>56,72; 841,63</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>23,34; 309,23</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,18; 384,77</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-19,22; 217,75</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-14,34; 259,15</t>
         </is>
       </c>
     </row>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,17</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,11</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,58%</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>441,68%</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>83,68%</t>
+          <t>-12,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,87%</t>
+          <t>612,56%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>57,91%</t>
+          <t>173,81%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24,27%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>108,37%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>92,44%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>61,76%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 7,66</t>
+          <t>-7,78; 2,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 17,59</t>
+          <t>3,52; 10,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 17,53</t>
+          <t>3,75; 12,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 7,25</t>
+          <t>-3,97; 6,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 17,63</t>
+          <t>2,11; 12,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,09; 150,56</t>
+          <t>1,11; 12,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,93; 2030,34</t>
+          <t>-1,34; 10,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,21; 229,87</t>
+          <t>-86,3; 188,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 47,2</t>
+          <t>100,67; 2520,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 198,07</t>
+          <t>57,19; 424,29</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-31,56; 97,26</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16,54; 276,17</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>10,46; 280,77</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-12,71; 214,7</t>
         </is>
       </c>
     </row>
@@ -1116,52 +1308,72 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,7</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>704,65%</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>77,52%</t>
+          <t>-4,41</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>67,14%</t>
+          <t>902,65%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>84,38%</t>
+          <t>106,96%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>127,85%</t>
+          <t>100,94%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>95,36%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>68,8%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>123,76%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-30,56%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 12,22</t>
+          <t>1,29; 6,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 12,15</t>
+          <t>-0,23; 8,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 14,67</t>
+          <t>1,62; 11,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 11,57</t>
+          <t>0,12; 8,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 21,73</t>
+          <t>-1,65; 10,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>2,45; 15,27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-11,21; 1,88</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-26,61; 336,91</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-5,15; 190,46</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 270,95</t>
+          <t>-19,78; 392,21</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,26; 349,53</t>
+          <t>16,45; 236,98</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 264,7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-24,84; 266,29</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>13,72; 338,33</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-60,74; 24,52</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1468,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,12</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>58,31%</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>178,61%</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-42,11%</t>
+          <t>54,41%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>172,5%</t>
+          <t>171,87%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>92,1%</t>
+          <t>-27,86%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>117,25%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>173,65%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>94,14%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-2,72%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 8,45</t>
+          <t>-1,54; 4,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 11,04</t>
+          <t>1,14; 10,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 3,03</t>
+          <t>-12,71; 3,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 28,33</t>
+          <t>0,55; 15,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 13,28</t>
+          <t>1,78; 17,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 313,03</t>
+          <t>-1,08; 13,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 687,9</t>
+          <t>-7,77; 6,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-83,0; 94,3</t>
+          <t>-37,73; 341,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,35; 931,81</t>
+          <t>0,13; 732,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 349,06</t>
+          <t>-80,43; 139,09</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 487,42</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>9,81; 829,86</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-26,33; 492,57</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-61,66; 141,9</t>
         </is>
       </c>
     </row>
@@ -1356,52 +1628,72 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>101,81%</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>53,19%</t>
+          <t>73,51%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>141,99%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>115,67%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>69,83%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>72,97%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>124,75%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>35,48%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 7,02</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 9,08</t>
+          <t>2,21; 5,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 9,27</t>
+          <t>2,52; 6,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 11,11</t>
+          <t>2,07; 6,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 13,04</t>
+          <t>-0,63; 6,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 135,6</t>
+          <t>3,93; 9,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,64; 206,06</t>
+          <t>0,26; 5,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 113,38</t>
+          <t>-5,09; 191,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 94,25</t>
+          <t>62,58; 265,29</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>23,1; 143,43</t>
+          <t>44,04; 193,23</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>28,97; 129,21</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-13,7; 178,05</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>57,7; 203,51</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 91,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
